--- a/프로젝트/파이썬/코딩교실/보고서 매크로/보고서.xlsx
+++ b/프로젝트/파이썬/코딩교실/보고서 매크로/보고서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\프로젝트\파이썬\코딩교실\보고서 매크로\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3956CC-1202-45F4-878E-00A4AD4230CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D45775-E958-42B3-A6B9-90202E2A4C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="정보" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="163">
   <si>
     <t>월수1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,6 +641,19 @@
   </si>
   <si>
     <t>화목반수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 &gt; 단락 간격 &gt; 기본 으로 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합쳐진_보고서 열기 &gt;  홈 &gt; 바꾸기 &gt; 찾을내용에 ^p 입력 &gt; 바꿀 내용 비워두고 모두 바꾸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표 간격 이상한가 둘러보고, 이상하면 높은 활률로 강사님이 내용을 너무 많이 넣어서 이상해짐
+내용을 줄이거나 폰트 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,7 +831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,6 +886,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1170,19 +1186,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818CDFC1-CB76-40A5-B8E8-35CB0941A002}">
-  <dimension ref="P1:Q9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="1" max="1" width="86.375" customWidth="1"/>
+    <col min="2" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="19.625" customWidth="1"/>
     <col min="17" max="17" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="16:17">
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
       <c r="P1" s="15" t="s">
         <v>145</v>
       </c>
@@ -1190,7 +1211,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="16:17">
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
       <c r="P2" s="15" t="s">
         <v>147</v>
       </c>
@@ -1198,7 +1222,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="16:17">
+    <row r="3" spans="1:17" ht="33">
+      <c r="A3" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="P3" s="15" t="s">
         <v>149</v>
       </c>
@@ -1206,7 +1233,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="16:17">
+    <row r="4" spans="1:17">
       <c r="P4" s="15" t="s">
         <v>151</v>
       </c>
@@ -1214,7 +1241,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="16:17">
+    <row r="5" spans="1:17">
       <c r="P5" s="17" t="s">
         <v>152</v>
       </c>
@@ -1222,7 +1249,7 @@
         <v>202406</v>
       </c>
     </row>
-    <row r="6" spans="16:17">
+    <row r="6" spans="1:17">
       <c r="P6" s="17" t="s">
         <v>154</v>
       </c>
@@ -1230,7 +1257,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="16:17">
+    <row r="7" spans="1:17">
       <c r="P7" s="15" t="s">
         <v>155</v>
       </c>
@@ -1238,7 +1265,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="16:17">
+    <row r="8" spans="1:17">
       <c r="P8" s="15" t="s">
         <v>158</v>
       </c>
@@ -1246,7 +1273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="16:17">
+    <row r="9" spans="1:17">
       <c r="P9" s="15" t="s">
         <v>159</v>
       </c>
